--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/ECONOMÍA_Y_TRABAJO/4-11_4-12.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/ECONOMÍA_Y_TRABAJO/4-11_4-12.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESCRITORIO\BACKUP HRUIZ\PROGRAMA GLOBAL 2009\INFORMES 2023\INFORMACIÓN PÚBLICA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/ECONOMÍA_Y_TRABAJO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35A8450-3881-46A5-90AF-EEDF09049B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{E35A8450-3881-46A5-90AF-EEDF09049B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4388E90-B361-47A5-A6C0-53B224E4F0A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D20D2A10-7D92-4AB5-9CAB-85D403B93368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D20D2A10-7D92-4AB5-9CAB-85D403B93368}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="2018" sheetId="3" r:id="rId2"/>
+    <sheet name="2022" sheetId="4" r:id="rId3"/>
+    <sheet name="sexo" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Ministerio de Economía</t>
   </si>
@@ -112,6 +115,18 @@
   <si>
     <t>Total Consolidado</t>
   </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +138,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +199,12 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -478,32 +499,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -521,6 +542,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -822,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A175FD-F63B-49F5-B715-2FD8942E6F62}">
   <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,84 +877,84 @@
       <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -948,57 +973,57 @@
     <row r="9" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="37">
+      <c r="C9" s="29">
         <v>2018</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
         <v>2022</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="31" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="34"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
@@ -1312,4 +1337,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3972C48-6677-4B7E-BF0C-F6C34D870088}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>865</v>
+      </c>
+      <c r="C2">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCA3B4A-921E-4CF9-9746-7C7DAF14D7A8}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>640</v>
+      </c>
+      <c r="C2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>91</v>
+      </c>
+      <c r="C3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC933E11-37B2-495D-A46F-3B8EA693FB25}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3">
+        <v>766</v>
+      </c>
+      <c r="C3">
+        <v>1057</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/ECONOMÍA_Y_TRABAJO/4-11_4-12.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/ECONOMÍA_Y_TRABAJO/4-11_4-12.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/ECONOMÍA_Y_TRABAJO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgalvez\OneDrive - ine.gob.gt\Documentos\GitHub\CompendioGenero2023\Codigo\Bases\datos_administrativos\Indicadores_de_Género\ECONOMÍA_Y_TRABAJO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{E35A8450-3881-46A5-90AF-EEDF09049B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4388E90-B361-47A5-A6C0-53B224E4F0A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3321CB-3FCE-49D8-A3C2-060CC3C58720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D20D2A10-7D92-4AB5-9CAB-85D403B93368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{D20D2A10-7D92-4AB5-9CAB-85D403B93368}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="3" r:id="rId2"/>
     <sheet name="2022" sheetId="4" r:id="rId3"/>
-    <sheet name="sexo" sheetId="5" r:id="rId4"/>
+    <sheet name="creditos" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -528,7 +528,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,12 +544,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -851,7 +847,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -1347,7 +1343,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1424,11 +1420,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCA3B4A-921E-4CF9-9746-7C7DAF14D7A8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1505,11 +1501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC933E11-37B2-495D-A46F-3B8EA693FB25}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
